--- a/farmServer/config/Pets.xlsx
+++ b/farmServer/config/Pets.xlsx
@@ -1,129 +1,602 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$32</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+  <si>
+    <t>宠物ID</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>公共冷却时间</t>
+  </si>
   <si>
     <t>PetID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
   <si>
     <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PublicCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只大黄狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>狗1</t>
+  </si>
+  <si>
+    <t>1星宠物-狗</t>
+  </si>
+  <si>
+    <t>狗2</t>
+  </si>
+  <si>
+    <t>2星宠物-狗</t>
+  </si>
+  <si>
+    <t>狗3</t>
+  </si>
+  <si>
+    <t>狗4</t>
+  </si>
+  <si>
+    <t>3星宠物-狗</t>
+  </si>
+  <si>
+    <t>11|21</t>
+  </si>
+  <si>
+    <t>狗5</t>
+  </si>
+  <si>
+    <t>狗6</t>
+  </si>
+  <si>
+    <t>4星宠物-狗</t>
+  </si>
+  <si>
+    <t>狗7</t>
+  </si>
+  <si>
+    <t>猫1</t>
+  </si>
+  <si>
+    <t>1星宠物-猫</t>
+  </si>
+  <si>
+    <t>猫2</t>
+  </si>
+  <si>
+    <t>2星宠物-猫</t>
+  </si>
+  <si>
+    <t>猫3</t>
+  </si>
+  <si>
+    <t>猫4</t>
+  </si>
+  <si>
+    <t>3星宠物-猫</t>
+  </si>
+  <si>
+    <t>猫5</t>
+  </si>
+  <si>
+    <t>猫6</t>
+  </si>
+  <si>
+    <t>4星宠物-猫</t>
+  </si>
+  <si>
+    <t>猫7</t>
+  </si>
+  <si>
+    <t>牛1</t>
+  </si>
+  <si>
+    <t>2星宠物-牛</t>
+  </si>
+  <si>
+    <t>牛2</t>
+  </si>
+  <si>
+    <t>3星宠物-牛</t>
+  </si>
+  <si>
+    <t>牛3</t>
+  </si>
+  <si>
+    <t>4星宠物-牛</t>
+  </si>
+  <si>
+    <t>马1</t>
+  </si>
+  <si>
+    <t>2星宠物-马</t>
+  </si>
+  <si>
+    <t>马2</t>
+  </si>
+  <si>
+    <t>3星宠物-马</t>
+  </si>
+  <si>
+    <t>马3</t>
+  </si>
+  <si>
+    <t>4星宠物-马</t>
+  </si>
+  <si>
+    <t>鹿1</t>
+  </si>
+  <si>
+    <t>2星宠物-鹿</t>
+  </si>
+  <si>
+    <t>鹿2</t>
+  </si>
+  <si>
+    <t>3星宠物-鹿</t>
+  </si>
+  <si>
+    <t>鹿3</t>
+  </si>
+  <si>
+    <t>4星宠物-鹿</t>
+  </si>
+  <si>
+    <t>11|21|31</t>
+  </si>
+  <si>
+    <t>狐狸1</t>
+  </si>
+  <si>
+    <t>2星宠物-狐狸</t>
+  </si>
+  <si>
+    <t>狐狸2</t>
+  </si>
+  <si>
+    <t>3星宠物-狐狸</t>
+  </si>
+  <si>
+    <t>狐狸3</t>
+  </si>
+  <si>
+    <t>4星宠物-狐狸</t>
+  </si>
+  <si>
+    <t>熊1</t>
+  </si>
+  <si>
+    <t>2星宠物-熊</t>
+  </si>
+  <si>
+    <t>熊2</t>
+  </si>
+  <si>
+    <t>3星宠物-熊</t>
+  </si>
+  <si>
+    <t>熊3</t>
+  </si>
+  <si>
+    <t>4星宠物-熊</t>
+  </si>
+  <si>
+    <t>狼1</t>
+  </si>
+  <si>
+    <t>4星宠物-狼</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,28 +604,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +1001,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,93 +1175,765 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.88333333333333" style="1"/>
+    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>901</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>10001</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11</v>
       </c>
       <c r="G3">
         <v>7200</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>902</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>903</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>904</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>905</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>906</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>907</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>908</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>909</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>910</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>911</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>912</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>913</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>914</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>915</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>916</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>917</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>918</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>919</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>920</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>921</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>922</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>923</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>924</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>925</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>926</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>927</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>928</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>929</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>930</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>